--- a/Adult Income Simple RF/Feature_importance_diff_50_5_6331_2.xlsx
+++ b/Adult Income Simple RF/Feature_importance_diff_50_5_6331_2.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -465,18 +465,18 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.02840858608859093</v>
+        <v>0.1770465627446121</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6564036189617485</v>
+        <v>0.6664315789974815</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6279950328731575</v>
+        <v>0.4893850162528695</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -484,279 +484,279 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.181861863108819</v>
+        <v>0.1802141973811431</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0169104690479005</v>
+        <v>0.02360909348707689</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1649513940609185</v>
+        <v>-0.1566051038940662</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>cat__relationship_Husband</t>
+          <t>cat__marital-status_Married-civ-spouse</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2001821436942656</v>
+        <v>0.1354079278162073</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03993361051843966</v>
+        <v>0.02776556429859326</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1602485331758259</v>
+        <v>-0.107642363517614</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>remainder__fnlwgt</t>
+          <t>cat__relationship_Husband</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1618357929383895</v>
+        <v>0.1218748960409863</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002165592969347195</v>
+        <v>0.03039141297803577</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1596701999690423</v>
+        <v>-0.09148348306295051</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cat__marital-status_Married-civ-spouse</t>
+          <t>remainder__age</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1668753116236051</v>
+        <v>0.06912449719157909</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0538136565970111</v>
+        <v>0.04191007722784627</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.113061655026594</v>
+        <v>-0.02721441996373282</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>remainder__Unnamed: 0</t>
+          <t>remainder__hours-per-week</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.04736063980830584</v>
+        <v>0.04805824459533488</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002497863890399308</v>
+        <v>0.02092180062014893</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04486277591790654</v>
+        <v>-0.02713644397518595</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>remainder__age</t>
+          <t>cat__relationship_Wife</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.001528261593442912</v>
+        <v>0.02192532785216445</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04327548769489362</v>
+        <v>0.004555377772688299</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04174722610145071</v>
+        <v>-0.01736995007947615</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cat__relationship_Wife</t>
+          <t>remainder__capital-loss</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.02184748437936522</v>
+        <v>0.05631929138478668</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003839738513014729</v>
+        <v>0.04022301061545109</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.01800774586635049</v>
+        <v>-0.01609628076933559</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>remainder__capital-loss</t>
+          <t>cat__sex_Male</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0341581231024982</v>
+        <v>0.0221008001206726</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02041530465946178</v>
+        <v>0.01152481306744512</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01374281844303642</v>
+        <v>-0.01057598705322748</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cat__marital-status_Never-married</t>
+          <t>cat__relationship_Not-in-family</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.05168876836499748</v>
+        <v>0.01674855182238977</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06189702864986597</v>
+        <v>0.007810378809908566</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01020826028486849</v>
+        <v>-0.008938173012481201</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cat__relationship_Not-in-family</t>
+          <t>cat__workclass_Self-emp-inc</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.01584972333799169</v>
+        <v>0.008151059955483016</v>
       </c>
       <c r="D12" t="n">
-        <v>0.007297241868846835</v>
+        <v>0.001434272384156954</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.008552481469144856</v>
+        <v>-0.006716787571326062</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>cat__workclass_Self-emp-inc</t>
+          <t>cat__marital-status_Divorced</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.007470430111199868</v>
+        <v>0.01009449376725485</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00049283773266318</v>
+        <v>0.00432624545565589</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.006977592378536688</v>
+        <v>-0.005768248311598963</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cat__sex_Female</t>
+          <t>remainder__fnlwgt</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.02478726945857737</v>
+        <v>0.01699617821767354</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01872690413629631</v>
+        <v>0.01199427889700243</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.006060365322281065</v>
+        <v>-0.005001899320671108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>cat__sex_Male</t>
+          <t>cat__marital-status_Never-married</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.01433987657250643</v>
+        <v>0.05126951770085203</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01923776430534672</v>
+        <v>0.05502420004718852</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004897887732840295</v>
+        <v>0.00375468234633649</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cat__marital-status_Divorced</t>
+          <t>cat__sex_Female</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.005553501083353266</v>
+        <v>0.01306760019752169</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002523794331740665</v>
+        <v>0.009580848122270388</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.003029706751612601</v>
+        <v>-0.003486752075251299</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>cat__relationship_Unmarried</t>
+          <t>cat__workclass_Self-emp-not-inc</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.007322657599646911</v>
+        <v>0.005197804764301552</v>
       </c>
       <c r="D17" t="n">
-        <v>0.004992211808463288</v>
+        <v>0.002252903677999452</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.002330445791183623</v>
+        <v>-0.0029449010863021</v>
       </c>
     </row>
     <row r="18">
@@ -769,317 +769,317 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.001639001058871298</v>
+        <v>0.003351344428597175</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0003246411787260384</v>
+        <v>0.0006941664413424951</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.001314359880145259</v>
+        <v>-0.00265717798725468</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>cat__race_Black</t>
+          <t>cat__relationship_Unmarried</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0003775965618498321</v>
+        <v>0.008907655680370649</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001268095010031078</v>
+        <v>0.007947470817705382</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0008904984481812456</v>
+        <v>-0.0009601848626652667</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cat__relationship_Own-child</t>
+          <t>cat__workclass_Private</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.02134325639169623</v>
+        <v>0.003510143578010595</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02066199066544715</v>
+        <v>0.004447313604017965</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.0006812657262490786</v>
+        <v>0.0009371700260073692</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>cat__marital-status_Married-AF-spouse</t>
+          <t>cat__workclass_Local-gov</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7.683771201980767e-05</v>
+        <v>0.00179702393137848</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0006575953112413921</v>
+        <v>0.0009233457504814548</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0005807575992215845</v>
+        <v>-0.0008736781808970257</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cat__marital-status_Separated</t>
+          <t>cat__race_White</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0002356134925445585</v>
+        <v>0.002184397966135036</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0006421703847702098</v>
+        <v>0.00149188306573224</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0004065568922256513</v>
+        <v>-0.0006925149004027955</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cat__race_Other</t>
+          <t>cat__workclass_State-gov</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.711550379809696e-05</v>
+        <v>0.001361148380411644</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0003316249188904953</v>
+        <v>0.0008077051713649747</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0003045094150923983</v>
+        <v>-0.0005534432090466693</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>cat__workclass_Self-emp-not-inc</t>
+          <t>cat__relationship_Own-child</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.001076188851197091</v>
+        <v>0.01668693589276904</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0007926699880107862</v>
+        <v>0.01620679028421175</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.0002835188631863043</v>
+        <v>-0.0004801456085572961</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cat__marital-status_Widowed</t>
+          <t>cat__race_Asian-Pac-Islander</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0008639721395736881</v>
+        <v>0.001334481713655214</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0006082489109978984</v>
+        <v>0.0008556641917762721</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.0002557232285757897</v>
+        <v>-0.0004788175218789418</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cat__workclass_Local-gov</t>
+          <t>cat__race_Black</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4.508575058058781e-05</v>
+        <v>0.001703217140502359</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0002826269449872469</v>
+        <v>0.001288280061243396</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0002375411944066591</v>
+        <v>-0.0004149370792589629</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cat__workclass_Private</t>
+          <t>cat__workclass_Without-pay</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.001872056107522214</v>
+        <v>6.832754375475227e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002081662389193011</v>
+        <v>0.0004531871683889995</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0002096062816707969</v>
+        <v>0.0003848596246342472</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>cat__workclass_State-gov</t>
+          <t>cat__marital-status_Separated</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.0001140596726057299</v>
+        <v>0.001134771130093967</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0003065150437760364</v>
+        <v>0.0007811863541089441</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0001924553711703065</v>
+        <v>-0.0003535847759850227</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cat__marital-status_Married-spouse-absent</t>
+          <t>cat__race_Other</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0001912061345578961</v>
+        <v>0.0005717770593577965</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0003607293717112199</v>
+        <v>0.0006854794179666294</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0001695232371533238</v>
+        <v>0.0001137023586088329</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>cat__race_Asian-Pac-Islander</t>
+          <t>cat__marital-status_Widowed</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.0001605613301115269</v>
+        <v>0.00115680999509893</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0002533538191462519</v>
+        <v>0.001082439461532945</v>
       </c>
       <c r="E30" t="n">
-        <v>9.279248903472495e-05</v>
+        <v>-7.43705335659844e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>cat__relationship_Other-relative</t>
+          <t>cat__race_Amer-Indian-Eskimo</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.0004678545968297639</v>
+        <v>0.0006095164304357372</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0004302282034115583</v>
+        <v>0.0005573883923218638</v>
       </c>
       <c r="E31" t="n">
-        <v>-3.762639341820559e-05</v>
+        <v>-5.212803811387341e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>cat__race_White</t>
+          <t>cat__relationship_Other-relative</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.0003228708310122379</v>
+        <v>0.001164728018567209</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0002952131062284662</v>
+        <v>0.00111587180004445</v>
       </c>
       <c r="E32" t="n">
-        <v>-2.765772478377173e-05</v>
+        <v>-4.885621852275925e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>cat__race_Amer-Indian-Eskimo</t>
+          <t>cat__marital-status_Married-AF-spouse</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6.832085210063873e-05</v>
+        <v>0.000316428381672289</v>
       </c>
       <c r="D33" t="n">
-        <v>9.150480330540887e-05</v>
+        <v>0.0003514355412233096</v>
       </c>
       <c r="E33" t="n">
-        <v>2.318395120477014e-05</v>
+        <v>3.50071595510206e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>cat__workclass_Without-pay</t>
+          <t>cat__marital-status_Married-spouse-absent</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4.797014757356778e-05</v>
+        <v>0.0005443411762263424</v>
       </c>
       <c r="D34" t="n">
-        <v>3.968510677480997e-05</v>
+        <v>0.000554536017587525</v>
       </c>
       <c r="E34" t="n">
-        <v>-8.285040798757818e-06</v>
+        <v>1.019484136118259e-05</v>
       </c>
     </row>
   </sheetData>
